--- a/images_src/compare.xlsx
+++ b/images_src/compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LynxPeng\projects\GraduationProjectRecords\paper\images_src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{567D6190-B4E9-4D86-9486-234109CB836F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF810637-B627-4050-B2C2-F8EF67C2E458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{EDDC3588-FA81-412B-9C2E-BC5FA0B2AF09}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -125,19 +125,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -191,10 +191,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
               <a:t>注册方案对比测试结果</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -275,13 +281,13 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>671983549.39999998</c:v>
+                  <c:v>67198.354940000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>335985250</c:v>
+                  <c:v>33598.525000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176419402.09999999</c:v>
+                  <c:v>17641.940210000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,13 +339,13 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>776246779</c:v>
+                  <c:v>77624.677899999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1251704769</c:v>
+                  <c:v>125170.47689999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2669330484.25</c:v>
+                  <c:v>266933.04842499999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,8 +376,38 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -469,6 +505,9 @@
         <c:crossAx val="225828783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="hundreds"/>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -525,12 +564,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1100,16 +1134,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>296635</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177483</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>155713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>677635</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>848018</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25085</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1456,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF1AF06-03AF-45C2-A517-5982E4BCA5E2}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1741,12 +1775,12 @@
         <v>776246779</v>
       </c>
       <c r="N10" s="3">
-        <f>L10/K10</f>
-        <v>671983549.39999998</v>
+        <f>L10/K10/10000</f>
+        <v>67198.354940000005</v>
       </c>
       <c r="O10" s="3">
-        <f>M10/K10</f>
-        <v>776246779</v>
+        <f>M10/K10/10000</f>
+        <v>77624.677899999995</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -1760,12 +1794,12 @@
         <v>2503409538</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" ref="N11:O14" si="0">L11/K11</f>
-        <v>335985250</v>
+        <f t="shared" ref="N11:N14" si="0">L11/K11/10000</f>
+        <v>33598.525000000001</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" ref="O11:O14" si="1">M11/K11</f>
-        <v>1251704769</v>
+        <f t="shared" ref="O11:O14" si="1">M11/K11/10000</f>
+        <v>125170.47689999999</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -1798,12 +1832,12 @@
         <v>10677321937</v>
       </c>
       <c r="N12" s="3">
-        <f>L12/K12</f>
-        <v>176419402.09999999</v>
+        <f t="shared" si="0"/>
+        <v>17641.940210000001</v>
       </c>
       <c r="O12" s="3">
-        <f>M12/K12</f>
-        <v>2669330484.25</v>
+        <f t="shared" si="1"/>
+        <v>266933.04842499999</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -1839,11 +1873,11 @@
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>33380887.550000001</v>
+        <v>3338.0887550000002</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="1"/>
-        <v>13380887.550000001</v>
+        <v>1338.088755</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -1885,11 +1919,11 @@
       </c>
       <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>16990815.487500001</v>
+        <v>1699.0815487500001</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>16990815.487500001</v>
+        <v>1699.0815487500001</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
